--- a/Excel/Item/ItemConfig.xlsx
+++ b/Excel/Item/ItemConfig.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="3870" yWindow="4200" windowWidth="21600" windowHeight="11400"/>
   </bookViews>
   <sheets>
-    <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="item" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>资源序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttachBuffs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂载的Buff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -451,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F5"/>
+  <dimension ref="C2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -464,30 +452,26 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -495,11 +479,8 @@
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -507,8 +488,45 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
